--- a/template.xlsx
+++ b/template.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\python_for_desk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\python_for_desk\bm_pd_summary_extractor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5610"/>
   </bookViews>
   <sheets>
-    <sheet name="raw_data" sheetId="1" r:id="rId1"/>
+    <sheet name="RawData" sheetId="1" r:id="rId1"/>
     <sheet name="조치시간" sheetId="2" r:id="rId2"/>
     <sheet name="조치 횟수" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -159,297 +159,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <alignment vertical="center" readingOrder="0"/>
     </dxf>
@@ -756,7 +466,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="45792.323349189814" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="281">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J1048576" sheet="raw_data"/>
+    <worksheetSource ref="A1:J1048576" sheet="RawData"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="날짜" numFmtId="0">
@@ -4250,7 +3960,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:C4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -4370,10 +4080,10 @@
     <dataField name="합계 : 처리시간(분)" fld="6" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="53">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="50">
@@ -4431,7 +4141,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4454,17 +4164,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
@@ -4482,7 +4192,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:C4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -4602,13 +4312,13 @@
     <dataField name="개수 : 현상" fld="8" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="21">
-    <format dxfId="47">
+    <format dxfId="20">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="50">
@@ -4666,7 +4376,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4689,26 +4399,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="13">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="50">
@@ -4766,7 +4476,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4789,26 +4499,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="6">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="50">
@@ -4866,7 +4576,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4889,17 +4599,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5200,7 +4910,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
